--- a/data/SoundDescriptorsParsed.xlsx
+++ b/data/SoundDescriptorsParsed.xlsx
@@ -9345,7 +9345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F649"/>
+  <dimension ref="A1:F726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26729,6 +26729,2122 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>wooshing</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>['move with a sibilant sound']</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>sublime</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>['inspiring awe', 'worthy of adoration or reverence', 'lifted up or set high', 'of high moral or intellectual value; elevated in nature or style', 'greatest or maximal in degree; extreme']</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>jar</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>['be incompatible; be or come into conflict', 'move or cause to move with a sudden jerky motion', 'shock physically', 'affect in a disagreeable way', 'place in a cylindrical vessel']</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>purr</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>['make a soft swishing sound', 'indicate pleasure by purring; characteristic of cats']</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>surprised</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>['taken unawares or suddenly and feeling wonder or astonishment']</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>dynamic</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>['characterized by action or forcefulness or force of personality', 'of or relating to dynamics', "(used of verbs (e.g. `to run'", "e.g. `running' in `running water'"]</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>['not congruent']</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>jarring</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>['making or causing a harsh and irritating sound']</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>orchestral</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>['relating to or composed for an orchestra']</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>quick</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>['accomplished rapidly and without delay', 'hurried and brief', 'moving quickly and lightly', 'apprehending and responding with speed and sensitivity', 'performed with little or no delay', 'easily aroused or excited']</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>ugly</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>['displeasing to the senses', 'inclined to anger or bad feelings with overtones of menace', 'morally reprehensible', 'provoking horror']</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>soothing</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>['affording physical relief', 'freeing from fear and anxiety']</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>gut</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>['empty completely; destroy the inside of', 'remove the guts of']</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>chippy</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>destructive</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>['causing destruction or much damage']</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>ominous</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>['threatening or foreshadowing evil or tragic developments', 'presaging ill fortune']</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>infustrial</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>skillful</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>['having or showing knowledge and skill and aptitude', 'done with delicacy and skill']</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>scratch</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>['cause friction', 'cut the surface of; wear away the surface of', 'scrape or rub as if to relieve itching', 'postpone indefinitely or annul something that was scheduled', 'remove by erasing or crossing out or as if by drawing a line', 'gather (money or other resources', 'carve, cut, or etch into a material or surface']</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>lovely</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>['appealing to the emotions as well as the eye', 'lovable especially in a childlike or naive way']</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>snap</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>['utter in an angry, sharp, or abrupt tone', 'separate or cause to separate abruptly', 'break suddenly and abruptly, as under tension', 'move or strike with a noise', 'close with a snapping motion', 'make a sharp sound', 'move with a snapping sound', 'to grasp hastily or eagerly', 'put in play with a snap', 'cause to make a snapping sound', "lose control of one's emotions", 'bring the jaws together', 'record on photographic film']</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>stretching</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>['occupy a large, elongated area', "extend one's limbs or muscles, or the entire body", 'extend or stretch out to a greater or the full length', 'become longer by being stretched and pulled', 'make long or longer by pulling and stretching', 'lie down comfortably', 'pull in opposite directions', 'extend the scope or meaning of; often unduly', 'corrupt, debase, or make impure by adding a foreign or inferior substance; often by replacing valuable ingredients with inferior ones', 'increase in quantity or bulk by adding a cheaper substance', "extend one's body or limbs"]</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>boing</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>opening</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>['first or beginning']</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>awful</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>['exceptionally bad or displeasing', 'causing fear or dread or terror', 'offensive or even (of persons', 'inspired by a feeling of fearful wonderment or reverence', 'extreme in degree or extent or amount or impact', 'inspiring awe or admiration or wonder']</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>crinkle</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>["make wrinkles or creases on a smooth surface; make a pressed, folded or wrinkled line in; `crisp' is archaic", 'become wrinkled or crumpled or creased']</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>forceful</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>['characterized by or full of force or strength (often but not necessarily physical', 'forceful and definite in expression or action']</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>bracing</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>['imparting vitality and energy']</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>hateful</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>['evoking or deserving hatred', 'characterized by malice']</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>interstellar</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>['between or among stars']</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>manly</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>['possessing qualities befitting a man', 'characteristic of a man']</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>fuzz</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>['filamentous hairlike growth on a plant', 'uncomplimentary terms for a policeman', 'a hazy or indistinct representation', 'the first beard of an adolescent boy']</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>grainy</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>['composed of or covered with particles resembling meal in texture or consistency']</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>conversational</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>['characteristic of informal spoken language or conversation']</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>acute</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>['having or experiencing a rapid onset and short but severe course', 'extremely sharp or severe', 'having or demonstrating ability to recognize or draw fine distinctions', 'of an angle; less than 90 degrees', 'ending in a sharp point', 'of critical importance and consequence', 'or critical']</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>crackle</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>['having the surface decorated with a network of fine cracks, as in crackleware']</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>unwelcome</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>['not welcome; not giving pleasure or received with pleasure', 'not welcome']</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>quick</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>['accomplished rapidly and without delay', 'hurried and brief', 'moving quickly and lightly', 'apprehending and responding with speed and sensitivity', 'performed with little or no delay', 'easily aroused or excited']</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>['greater than normal in degree or intensity or amount', '(literal meaning', "sometimes used in combinations like `knee-high'", 'standing above others in quality or position', 'used of sounds and voices; high in pitch or frequency', 'happy and excited and energetic', '(used of the smell of meat', 'slightly and pleasantly intoxicated from alcohol or a drug (especially marijuana']</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>intrigued</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>['cause to be interested or curious', 'form intrigues (for']</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>melancholy</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>['characterized by or causing or expressing sadness', 'grave or even gloomy in character']</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>brash</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>['offensively bold']</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>gravity</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>['(physics', 'a manner that is serious and solemn', 'a solemn and dignified feeling']</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>furious</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>['marked by extreme and violent energy', 'marked by extreme anger', '(of the elements']</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>['characterized by or displaying affirmation or acceptance or certainty etc.', 'persuaded of; very sure', 'involving advantage or good', 'or positive', 'indicating existence or presence of a suspected condition or pathogen', 'formally laid down or imposed', 'impossible to deny or disprove', 'of or relating to positivism', 'reckoned, situated or tending in the direction which naturally or arbitrarily is taken to indicate increase or progress or onward motion', 'greater than zero', 'having a positive charge', 'marked by excessive confidence']</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>jelly</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>['make into jelly']</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>upbeat</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>['pleasantly (even unrealistically']</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>stressful</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>['extremely irritating to the nerves']</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>inspired</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>['being of such surpassing excellence as to suggest inspiration by the gods']</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>dizzy</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>['having or causing a whirling sensation; liable to falling', 'lacking seriousness; given to frivolity']</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>oops</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>tension</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>['(psychology', 'the physical condition of being stretched or strained', 'a balance between and interplay of opposing elements or tendencies (especially in art or literature', '(physics', 'feelings of hostility that are not manifest', 'the action of stretching something tight']</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>awe</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>['inspire awe in']</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>sorrow</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>['feel grief']</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>proud</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>['feeling self-respect or pleasure in something by which you measure your self-worth; or being a reason for pride', 'having or displaying great dignity or nobility']</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>wonderment</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>['the feeling aroused by something strange and surprising']</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>elastic</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>['capable of resuming original shape after stretching or compression; springy', 'able to adjust readily to different conditions']</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>['holding or containing nothing', 'devoid of significance or force', 'needing nourishment', 'emptied of emotion']</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>textural</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>flutter</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>['move along rapidly and lightly; skim or dart', 'move back and forth very rapidly', 'flap the wings rapidly or fly with flapping movements', 'beat rapidly', 'wink briefly']</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>chromatic</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>['able to refract light without spectral color separation', 'based on a scale consisting of 12 semitones', 'being or having or characterized by hue']</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>ripping</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>['resembling a sound of violent tearing as of something ripped apart or lightning splitting a tree', 'very good; of the highest quality']</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>hopeful</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>['having or manifesting hope', 'likely to turn out well in the future']</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>texture</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>['the feel of a surface or a fabric', 'the essential quality of something', 'the musical pattern created by parts being played or sung together', 'the characteristic appearance of a surface having a tactile quality', 'the physical composition of something (especially with respect to the size and shape of the small constituents of a substance']</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>undulate</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>['having a wavy margin and rippled surface']</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>chill</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>['depress or discourage', 'make cool or cooler', 'loose heat']</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>awful</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>['exceptionally bad or displeasing', 'causing fear or dread or terror', 'offensive or even (of persons', 'inspired by a feeling of fearful wonderment or reverence', 'extreme in degree or extent or amount or impact', 'inspiring awe or admiration or wonder']</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>sand</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>['rub with sandpaper']</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>escape</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Verb</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>['run away from confinement', 'fail to experience', 'escape potentially unpleasant consequences; get away with a forbidden action', 'be incomprehensible to; escape understanding by', 'remove oneself from a familiar environment, usually for pleasure or diversion', "flee; take to one's heels; cut and run", 'issue or leak, as from a small opening']</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>hollow</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>['not solid; having a space or gap or cavity', 'as if echoing in a hollow space', 'devoid of significance or force', 'lacking in substance or character']</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>sharp</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>['(of something seen or heard', 'ending in a sharp point', 'having or demonstrating ability to recognize or draw fine distinctions', 'marked by practical hardheaded intelligence', 'having or emitting a high-pitched and sharp tone or tones', 'extremely steep', 'keenly and painfully felt; as if caused by a sharp edge or point', 'having or made by a thin edge or sharp point; suitable for cutting or piercing', '(of a musical note', 'very sudden and in great amount or degree', 'quick and forceful']</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>silly</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>['ludicrous, foolish', 'lacking seriousness; given to frivolity', 'inspiring scornful pity', 'dazed from or as if from repeated blows']</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>finality</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>['the quality of being final or definitely settled']</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>brutal</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>['(of persons or their actions', 'punishingly harsh', 'resembling a beast; showing lack of human sensibility', 'disagreeably direct and precise']</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>papery</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>['thin and paperlike', 'of or like paper']</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>shrill</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>['having or emitting a high-pitched and sharp tone or tones', 'being sharply insistent on being heard', 'of colors that are bright and gaudy']</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>horrific</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Emotion</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Adjective</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>['grossly offensive to decency or morality; causing horror', 'causing fear or dread or terror']</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>WordNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
